--- a/hw2.xlsx
+++ b/hw2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timestamp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +35,10 @@
   </si>
   <si>
     <t>My Output Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM In</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,43 +372,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G106" sqref="G103:G106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -411,21 +416,24 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <f>B2-A2</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <f>F2-E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.18035012</v>
       </c>
@@ -433,21 +441,24 @@
         <v>0.18035999999999999</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <v>0.18035899999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3-A3</f>
         <v>9.8799999999898969E-6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.18035012</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.18035999999999999</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">F3-E3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">G3-F3</f>
         <v>9.8799999999898969E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.38822592</v>
       </c>
@@ -455,21 +466,24 @@
         <v>0.38824599999999998</v>
       </c>
       <c r="C4">
+        <v>0.38824500000000001</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>2.0079999999977893E-5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.38822592</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.38824599999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>2.0079999999977893E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.58176676000000005</v>
       </c>
@@ -477,21 +491,24 @@
         <v>0.58179700000000001</v>
       </c>
       <c r="C5">
+        <v>0.58179599999999998</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>3.0239999999959188E-5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.58176676000000005</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.58179700000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>3.0239999999959188E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.76756672000000004</v>
       </c>
@@ -499,21 +516,24 @@
         <v>0.76760700000000004</v>
       </c>
       <c r="C6">
+        <v>0.76760600000000001</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>4.0280000000003646E-5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.76756672000000004</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.76760700000000004</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>4.0280000000003646E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.92252012000000005</v>
       </c>
@@ -521,21 +541,24 @@
         <v>0.92256800000000005</v>
       </c>
       <c r="C7">
+        <v>0.92256800000000005</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>4.7880000000000145E-5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.92252012000000005</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.92256800000000005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>4.7880000000000145E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0815870000000001</v>
       </c>
@@ -543,21 +566,24 @@
         <v>1.0816429999999999</v>
       </c>
       <c r="C8">
+        <v>1.0816429999999999</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>5.599999999983396E-5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.0815870000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.0816429999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>5.599999999983396E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.2538760799999999</v>
       </c>
@@ -565,21 +591,24 @@
         <v>1.253941</v>
       </c>
       <c r="C9">
+        <v>1.253941</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>6.4920000000023848E-5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.2538760799999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.253941</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>6.4920000000023848E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.40824292</v>
       </c>
@@ -587,21 +616,24 @@
         <v>1.4083159999999999</v>
       </c>
       <c r="C10">
+        <v>1.408315</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>7.3079999999947631E-5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.40824292</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.4083159999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>7.3079999999947631E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.61968336</v>
       </c>
@@ -609,21 +641,24 @@
         <v>1.6197680000000001</v>
       </c>
       <c r="C11">
+        <v>1.619767</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>8.4640000000080207E-5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.61968336</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.6197680000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>8.4640000000080207E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.80939892</v>
       </c>
@@ -631,21 +666,24 @@
         <v>1.809493</v>
       </c>
       <c r="C12">
+        <v>1.8094920000000001</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>9.4079999999996389E-5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.80939892</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.809493</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>9.4079999999996389E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.9653606400000001</v>
       </c>
@@ -653,21 +691,24 @@
         <v>1.965463</v>
       </c>
       <c r="C13">
+        <v>1.965462</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>1.0235999999985701E-4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.9653606400000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.965463</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>1.0235999999985701E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.1175554000000001</v>
       </c>
@@ -675,21 +716,24 @@
         <v>2.1176659999999998</v>
       </c>
       <c r="C14">
+        <v>2.1176650000000001</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>1.1059999999973869E-4</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.1175554000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.1176659999999998</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>1.1059999999973869E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.3470989200000001</v>
       </c>
@@ -697,21 +741,24 @@
         <v>2.3472209999999998</v>
       </c>
       <c r="C15">
+        <v>2.3472200000000001</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>1.2207999999969132E-4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.3470989200000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.3472209999999998</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>1.2207999999969132E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.53338888</v>
       </c>
@@ -719,21 +766,24 @@
         <v>2.5335209999999999</v>
       </c>
       <c r="C16">
+        <v>2.5335200000000002</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>1.3211999999995783E-4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.53338888</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.5335209999999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>1.3211999999995783E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.7258210799999998</v>
       </c>
@@ -741,21 +791,24 @@
         <v>2.7259630000000001</v>
       </c>
       <c r="C17">
+        <v>2.725962</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>1.4192000000035065E-4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.7258210799999998</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.7259630000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>1.4192000000035065E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2.9634200399999999</v>
       </c>
@@ -763,21 +816,24 @@
         <v>2.9635739999999999</v>
       </c>
       <c r="C18">
+        <v>2.9635739999999999</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>1.5396000000000853E-4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.9634200399999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.9635739999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>1.5396000000000853E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.2044983199999999</v>
       </c>
@@ -785,21 +841,24 @@
         <v>3.2046649999999999</v>
       </c>
       <c r="C19">
+        <v>3.2046640000000002</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>1.6667999999997463E-4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3.2044983199999999</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3.2046649999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>1.6667999999997463E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.4168042399999998</v>
       </c>
@@ -807,43 +866,49 @@
         <v>3.416982</v>
       </c>
       <c r="C20">
+        <v>3.4169809999999998</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>1.7776000000013781E-4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3.4168042399999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.416982</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>1.7776000000013781E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.59599548</v>
       </c>
       <c r="B21" s="1">
         <v>3.4189820000000002</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
+        <v>3.5961820000000002</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>-0.17701347999999983</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3.59599548</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.5961829999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>1.8751999999988556E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3.7737649200000001</v>
       </c>
@@ -851,21 +916,24 @@
         <v>3.5961829999999999</v>
       </c>
       <c r="C22">
+        <v>3.598182</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>-0.17758192000000017</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3.7737649200000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3.7739609999999999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>1.9607999999982084E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3.97469932</v>
       </c>
@@ -873,21 +941,24 @@
         <v>3.7739609999999999</v>
       </c>
       <c r="C23">
+        <v>3.7739609999999999</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>-0.20073832000000014</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3.97469932</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.9749059999999998</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>2.0667999999979259E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.21392392</v>
       </c>
@@ -895,21 +966,24 @@
         <v>3.9749059999999998</v>
       </c>
       <c r="C24">
+        <v>3.9749059999999998</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>-0.23901792000000022</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4.21392392</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.214143</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>2.1907999999992711E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.4497763199999998</v>
       </c>
@@ -917,21 +991,24 @@
         <v>4.214143</v>
       </c>
       <c r="C25">
+        <v>4.214143</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>-0.23563331999999981</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4.4497763199999998</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4.4500080000000004</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>2.316800000006225E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4.63262252</v>
       </c>
@@ -939,21 +1016,24 @@
         <v>4.4500080000000004</v>
       </c>
       <c r="C26">
+        <v>4.4500070000000003</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>-0.18261451999999956</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4.63262252</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.6328639999999996</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>2.4147999999968306E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.8115918799999999</v>
       </c>
@@ -961,21 +1041,24 @@
         <v>4.6328639999999996</v>
       </c>
       <c r="C27">
+        <v>4.6328630000000004</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>-0.17872788000000028</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4.8115918799999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4.8118420000000004</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>2.5012000000046442E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.0397425599999996</v>
       </c>
@@ -983,21 +1066,24 @@
         <v>4.8118420000000004</v>
       </c>
       <c r="C28">
+        <v>4.8118420000000004</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>-0.22790055999999925</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5.0397425599999996</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>5.0400049999999998</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>2.6244000000019696E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5.2175124799999999</v>
       </c>
@@ -1005,21 +1091,24 @@
         <v>5.0400049999999998</v>
       </c>
       <c r="C29">
+        <v>5.0400039999999997</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>-0.17750748000000005</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5.2175124799999999</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5.217784</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>2.7152000000008059E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5.4189643199999997</v>
       </c>
@@ -1027,21 +1116,24 @@
         <v>5.217784</v>
       </c>
       <c r="C30">
+        <v>5.2177829999999998</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>-0.20118031999999975</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5.4189643199999997</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5.4192460000000002</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>2.8168000000050597E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5.6352550399999997</v>
       </c>
@@ -1049,21 +1141,24 @@
         <v>5.4192460000000002</v>
       </c>
       <c r="C31">
+        <v>5.4192460000000002</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>-0.21600903999999943</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5.6352550399999997</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5.635548</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>2.9296000000034184E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5.8288468399999998</v>
       </c>
@@ -1071,21 +1166,24 @@
         <v>5.635548</v>
       </c>
       <c r="C32">
+        <v>5.635548</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>-0.19329883999999975</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5.8288468399999998</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>5.8291500000000003</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>3.0316000000052412E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6.0303439599999997</v>
       </c>
@@ -1093,21 +1191,24 @@
         <v>5.8291500000000003</v>
       </c>
       <c r="C33">
+        <v>5.8291500000000003</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>-0.20119395999999945</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6.0303439599999997</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>6.0306579999999999</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>3.1404000000012644E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6.2333381599999997</v>
       </c>
@@ -1115,43 +1216,49 @@
         <v>6.0306579999999999</v>
       </c>
       <c r="C34">
+        <v>6.0306569999999997</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>-0.20268015999999989</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6.2333381599999997</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>6.233663</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>3.2484000000021496E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6.4141532799999998</v>
       </c>
       <c r="B35" s="1">
         <v>6.0326579999999996</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
+        <v>6.2336619999999998</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>-0.38149528000000021</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6.4141532799999998</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>6.4144870000000003</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>3.337200000004259E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6.6133846800000002</v>
       </c>
@@ -1159,21 +1266,24 @@
         <v>6.233663</v>
       </c>
       <c r="C36">
+        <v>6.4144870000000003</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>-0.37972168000000028</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>6.6133846800000002</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>6.6137290000000002</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>3.4431999999995355E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6.7750127200000003</v>
       </c>
@@ -1181,21 +1291,24 @@
         <v>6.4144870000000003</v>
       </c>
       <c r="C37">
+        <v>6.6137290000000002</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>-0.36052572000000005</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6.7750127200000003</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>6.7753649999999999</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>3.5227999999953852E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6.9494844799999997</v>
       </c>
@@ -1203,21 +1316,24 @@
         <v>6.6137290000000002</v>
       </c>
       <c r="C38">
+        <v>6.7753649999999999</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>-0.33575547999999955</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>6.9494844799999997</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6.949846</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>3.615200000002261E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.1900138800000004</v>
       </c>
@@ -1225,21 +1341,24 @@
         <v>6.7753649999999999</v>
       </c>
       <c r="C39">
+        <v>6.949846</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>-0.41464888000000055</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7.1900138800000004</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7.1903879999999996</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>3.7411999999914514E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7.4183072399999999</v>
       </c>
@@ -1247,43 +1366,49 @@
         <v>6.949846</v>
       </c>
       <c r="C40">
+        <v>7.1903879999999996</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>-0.46846123999999989</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7.4183072399999999</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>7.4186930000000002</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>3.8576000000034583E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7.5749312800000004</v>
       </c>
       <c r="B41" s="1">
         <v>6.9518459999999997</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
+        <v>7.4186930000000002</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>-0.62308528000000063</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7.5749312800000004</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>7.5753259999999996</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>3.9471999999918239E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7.7582022400000001</v>
       </c>
@@ -1291,21 +1416,24 @@
         <v>7.1903879999999996</v>
       </c>
       <c r="C42">
+        <v>7.5753250000000003</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>-0.56781424000000058</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>7.7582022400000001</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>7.7586060000000003</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>4.0376000000019729E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7.9971979600000003</v>
       </c>
@@ -1313,21 +1441,24 @@
         <v>7.4186930000000002</v>
       </c>
       <c r="C43">
+        <v>7.7586060000000003</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>-0.57850496000000007</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>7.9971979600000003</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7.9976139999999996</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>4.1603999999928476E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8.1926007199999997</v>
       </c>
@@ -1335,21 +1466,24 @@
         <v>7.5753259999999996</v>
       </c>
       <c r="C44">
+        <v>7.9976139999999996</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>-0.61727472000000017</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>8.1926007199999997</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>8.1930270000000007</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>4.262800000010003E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.3516461199999998</v>
       </c>
@@ -1357,21 +1491,24 @@
         <v>7.7586060000000003</v>
       </c>
       <c r="C45">
+        <v>8.1930270000000007</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>-0.5930401199999995</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8.3516461199999998</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8.3520810000000001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>4.348800000002484E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8.5930537999999999</v>
       </c>
@@ -1379,21 +1516,24 @@
         <v>7.9976139999999996</v>
       </c>
       <c r="C46">
+        <v>8.3520810000000001</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>-0.5954398000000003</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8.5930537999999999</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>8.5935009999999998</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>4.4719999999998095E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8.7752220800000007</v>
       </c>
@@ -1401,21 +1541,24 @@
         <v>8.1930270000000007</v>
       </c>
       <c r="C47">
+        <v>8.5935009999999998</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>-0.58219507999999998</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>8.7752220800000007</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>8.7756790000000002</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>4.569199999995277E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8.9505046400000001</v>
       </c>
@@ -1423,21 +1566,24 @@
         <v>8.3520810000000001</v>
       </c>
       <c r="C48">
+        <v>8.7756790000000002</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>-0.59842364000000003</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8.9505046400000001</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8.9509709999999991</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>4.663599999989998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9.1908411599999997</v>
       </c>
@@ -1445,21 +1591,24 @@
         <v>8.5935009999999998</v>
       </c>
       <c r="C49">
+        <v>8.9509699999999999</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>-0.5973401599999999</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>9.1908411599999997</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>9.1913199999999993</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>4.788399999995363E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9.3635704400000002</v>
       </c>
@@ -1467,21 +1616,24 @@
         <v>8.7756790000000002</v>
       </c>
       <c r="C50">
+        <v>9.191319</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>-0.58789143999999993</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>9.3635704400000002</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>9.364058</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>4.8755999999983146E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9.5281900400000001</v>
       </c>
@@ -1489,21 +1641,24 @@
         <v>8.9509709999999991</v>
       </c>
       <c r="C51">
+        <v>9.364058</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>-0.57721904000000102</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>9.5281900400000001</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9.5286860000000004</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>4.9596000000029505E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9.7161823199999997</v>
       </c>
@@ -1511,21 +1666,24 @@
         <v>9.1913199999999993</v>
       </c>
       <c r="C52">
+        <v>9.5286860000000004</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>-0.52486232000000044</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>9.7161823199999997</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>9.7166879999999995</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>5.0567999999984181E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9.9073515600000004</v>
       </c>
@@ -1533,21 +1691,24 @@
         <v>9.364058</v>
       </c>
       <c r="C53">
+        <v>9.7166879999999995</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>-0.5432935600000004</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>9.9073515600000004</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9.9078669999999995</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>5.1543999999914547E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10.136172800000001</v>
       </c>
@@ -1555,21 +1716,24 @@
         <v>9.5286860000000004</v>
       </c>
       <c r="C54">
+        <v>9.9078669999999995</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>-0.60748680000000022</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>10.136172800000001</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>10.136701</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="1"/>
         <v>5.2819999999975664E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10.307869520000001</v>
       </c>
@@ -1577,21 +1741,24 @@
         <v>9.7166879999999995</v>
       </c>
       <c r="C55">
+        <v>10.136699999999999</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>-0.59118152000000102</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>10.307869520000001</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>10.308406</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="1"/>
         <v>5.3647999999917317E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10.5331092</v>
       </c>
@@ -1599,21 +1766,24 @@
         <v>9.9078669999999995</v>
       </c>
       <c r="C56">
+        <v>10.308406</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>-0.62524220000000064</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>10.5331092</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>10.533658000000001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>5.4880000000068208E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10.763068560000001</v>
       </c>
@@ -1621,21 +1791,24 @@
         <v>10.136701</v>
       </c>
       <c r="C57">
+        <v>10.533657</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>-0.62636756000000027</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>10.763068560000001</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>10.763629</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>5.6043999999921823E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10.982511840000001</v>
       </c>
@@ -1643,21 +1816,24 @@
         <v>10.308406</v>
       </c>
       <c r="C58">
+        <v>10.763629</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>-0.67410584000000107</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>10.982511840000001</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>10.983084</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>5.7215999999904454E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>11.19490828</v>
       </c>
@@ -1665,21 +1841,24 @@
         <v>10.533658000000001</v>
       </c>
       <c r="C59">
+        <v>10.983083000000001</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>-0.66125027999999908</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>11.19490828</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>11.195491000000001</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>5.8272000000059165E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11.3788404</v>
       </c>
@@ -1687,21 +1866,24 @@
         <v>10.763629</v>
       </c>
       <c r="C60">
+        <v>11.195491000000001</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>-0.61521139999999974</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>11.3788404</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>11.379433000000001</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>5.9260000000094237E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11.60704748</v>
       </c>
@@ -1709,21 +1891,24 @@
         <v>10.983084</v>
       </c>
       <c r="C61">
+        <v>11.379432</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>-0.62396348000000046</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>11.60704748</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>11.607652</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="1"/>
         <v>6.0451999999955319E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>11.76306188</v>
       </c>
@@ -1731,21 +1916,24 @@
         <v>11.195491000000001</v>
       </c>
       <c r="C62">
+        <v>11.607651000000001</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="0"/>
         <v>-0.56757087999999989</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>11.76306188</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>11.763674</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <f t="shared" si="1"/>
         <v>6.1211999999954969E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>11.94715068</v>
       </c>
@@ -1753,21 +1941,24 @@
         <v>11.379433000000001</v>
       </c>
       <c r="C63">
+        <v>11.763674</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="0"/>
         <v>-0.56771767999999945</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>11.94715068</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>11.947773</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <f t="shared" si="1"/>
         <v>6.2231999999973198E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>12.13365576</v>
       </c>
@@ -1775,21 +1966,24 @@
         <v>11.607652</v>
       </c>
       <c r="C64">
+        <v>11.947772000000001</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="0"/>
         <v>-0.52600376000000004</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>12.13365576</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>12.134288</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <f t="shared" si="1"/>
         <v>6.322399999998396E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>12.318685759999999</v>
       </c>
@@ -1797,21 +1991,24 @@
         <v>11.763674</v>
       </c>
       <c r="C65">
+        <v>11.949771999999999</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="0"/>
         <v>-0.5550117599999993</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>12.318685759999999</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>12.319326999999999</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <f t="shared" si="1"/>
         <v>6.4124000000020942E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12.482184119999999</v>
       </c>
@@ -1819,21 +2016,24 @@
         <v>11.947773</v>
       </c>
       <c r="C66">
+        <v>12.134287</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="0"/>
         <v>-0.53441111999999968</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>12.482184119999999</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>12.482834</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <f t="shared" si="1"/>
         <v>6.4988000000099078E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>12.7241208</v>
       </c>
@@ -1841,21 +2041,24 @@
         <v>12.134288</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C104" si="2">B67-A67</f>
+        <v>12.319326999999999</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D104" si="2">B67-A67</f>
         <v>-0.58983279999999993</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>12.7241208</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>12.724783</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G101" si="3">F67-E67</f>
+      <c r="H67">
+        <f t="shared" ref="H67:H101" si="3">G67-F67</f>
         <v>6.6220000000072332E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12.96284296</v>
       </c>
@@ -1863,21 +2066,24 @@
         <v>12.319326999999999</v>
       </c>
       <c r="C68">
+        <v>12.482834</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="2"/>
         <v>-0.64351596000000022</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>12.96284296</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>12.963518000000001</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <f t="shared" si="3"/>
         <v>6.7504000000084829E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13.19600224</v>
       </c>
@@ -1885,21 +2091,24 @@
         <v>12.482834</v>
       </c>
       <c r="C69">
+        <v>12.724783</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="2"/>
         <v>-0.7131682399999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>13.19600224</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>13.196688999999999</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <f t="shared" si="3"/>
         <v>6.8675999999889825E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>13.370305800000001</v>
       </c>
@@ -1907,21 +2116,24 @@
         <v>12.724783</v>
       </c>
       <c r="C70">
+        <v>12.963518000000001</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="2"/>
         <v>-0.64552280000000017</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>13.370305800000001</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>13.371002000000001</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <f t="shared" si="3"/>
         <v>6.962000000001467E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>13.556076320000001</v>
       </c>
@@ -1929,21 +2141,24 @@
         <v>12.963518000000001</v>
       </c>
       <c r="C71">
+        <v>13.196688999999999</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="2"/>
         <v>-0.59255832000000019</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>13.556076320000001</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>13.556782</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <f t="shared" si="3"/>
         <v>7.056799999993757E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>13.74964188</v>
       </c>
@@ -1951,21 +2166,24 @@
         <v>13.196688999999999</v>
       </c>
       <c r="C72">
+        <v>13.371002000000001</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="2"/>
         <v>-0.5529528800000012</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>13.74964188</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>13.750358</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <f t="shared" si="3"/>
         <v>7.1611999999987574E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13.955331559999999</v>
       </c>
@@ -1973,21 +2191,24 @@
         <v>13.371002000000001</v>
       </c>
       <c r="C73">
+        <v>13.556782</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="2"/>
         <v>-0.58432955999999869</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>13.955331559999999</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>13.956058000000001</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <f t="shared" si="3"/>
         <v>7.2644000000110509E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14.139103</v>
       </c>
@@ -1995,21 +2216,24 @@
         <v>13.556782</v>
       </c>
       <c r="C74">
+        <v>13.750356999999999</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="2"/>
         <v>-0.58232100000000031</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>14.139103</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>14.139839</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <f t="shared" si="3"/>
         <v>7.3599999999984789E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>14.299598960000001</v>
       </c>
@@ -2017,21 +2241,24 @@
         <v>13.750358</v>
       </c>
       <c r="C75">
+        <v>13.956056999999999</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="2"/>
         <v>-0.54924096000000056</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>14.299598960000001</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>14.300344000000001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <f t="shared" si="3"/>
         <v>7.4503999999997461E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>14.505090559999999</v>
       </c>
@@ -2039,21 +2266,24 @@
         <v>13.956058000000001</v>
       </c>
       <c r="C76">
+        <v>14.139837999999999</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="2"/>
         <v>-0.54903255999999878</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>14.505090559999999</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>14.505846</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <f t="shared" si="3"/>
         <v>7.5544000000071776E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>14.69817488</v>
       </c>
@@ -2061,21 +2291,24 @@
         <v>14.139839</v>
       </c>
       <c r="C77">
+        <v>14.300342000000001</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="2"/>
         <v>-0.55833587999999956</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>14.69817488</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>14.69894</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <f t="shared" si="3"/>
         <v>7.6512000000050762E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>14.855575079999999</v>
       </c>
@@ -2083,21 +2316,24 @@
         <v>14.300344000000001</v>
       </c>
       <c r="C78">
+        <v>14.505845000000001</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="2"/>
         <v>-0.55523107999999866</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>14.855575079999999</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>14.856349</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <f t="shared" si="3"/>
         <v>7.7392000000031658E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>15.073140479999999</v>
       </c>
@@ -2105,21 +2341,24 @@
         <v>14.505846</v>
       </c>
       <c r="C79">
+        <v>14.698938999999999</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="2"/>
         <v>-0.56729447999999927</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>15.073140479999999</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>15.073924999999999</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <f t="shared" si="3"/>
         <v>7.8451999999984423E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>15.296450159999999</v>
       </c>
@@ -2127,21 +2366,24 @@
         <v>14.69894</v>
       </c>
       <c r="C80">
+        <v>14.856348000000001</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="2"/>
         <v>-0.59751015999999879</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>15.296450159999999</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>15.297247</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <f t="shared" si="3"/>
         <v>7.9684000000135313E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>15.537663159999999</v>
       </c>
@@ -2149,21 +2391,24 @@
         <v>14.856349</v>
       </c>
       <c r="C81">
+        <v>15.073924</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="2"/>
         <v>-0.68131415999999945</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>15.537663159999999</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>15.538472000000001</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <f t="shared" si="3"/>
         <v>8.0884000000125411E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>15.75290656</v>
       </c>
@@ -2171,21 +2416,24 @@
         <v>15.073924999999999</v>
       </c>
       <c r="C82">
+        <v>15.297245999999999</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="2"/>
         <v>-0.67898156000000043</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>15.75290656</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>15.753727</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <f t="shared" si="3"/>
         <v>8.2044000000003336E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>15.99293664</v>
       </c>
@@ -2193,21 +2441,24 @@
         <v>15.297247</v>
       </c>
       <c r="C83">
+        <v>15.538470999999999</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="2"/>
         <v>-0.69568963999999944</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>15.99293664</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>15.99377</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <f t="shared" si="3"/>
         <v>8.3335999999967214E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>16.206706319999999</v>
       </c>
@@ -2215,21 +2466,24 @@
         <v>15.538472000000001</v>
       </c>
       <c r="C84">
+        <v>15.753726</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="2"/>
         <v>-0.66823431999999805</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>16.206706319999999</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>16.207550000000001</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <f t="shared" si="3"/>
         <v>8.4368000000267784E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>16.447538439999999</v>
       </c>
@@ -2237,21 +2491,24 @@
         <v>15.753727</v>
       </c>
       <c r="C85">
+        <v>15.993767999999999</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="2"/>
         <v>-0.69381143999999928</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>16.447538439999999</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>16.448395000000001</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <f t="shared" si="3"/>
         <v>8.5656000000255972E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>16.63316648</v>
       </c>
@@ -2259,21 +2516,24 @@
         <v>15.99377</v>
       </c>
       <c r="C86">
+        <v>16.207549</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="2"/>
         <v>-0.63939648000000027</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>16.63316648</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>16.634032999999999</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <f t="shared" si="3"/>
         <v>8.6651999999887153E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>16.8150254</v>
       </c>
@@ -2281,21 +2541,24 @@
         <v>16.207550000000001</v>
       </c>
       <c r="C87">
+        <v>16.448394</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="2"/>
         <v>-0.60747539999999844</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>16.8150254</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>16.815901</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <f t="shared" si="3"/>
         <v>8.7560000000053151E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>17.047860279999998</v>
       </c>
@@ -2303,21 +2566,24 @@
         <v>16.448395000000001</v>
       </c>
       <c r="C88">
+        <v>16.634031</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="2"/>
         <v>-0.59946527999999688</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>17.047860279999998</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>17.048748</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <f t="shared" si="3"/>
         <v>8.8772000000147955E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>17.23105516</v>
       </c>
@@ -2325,21 +2591,24 @@
         <v>16.634032999999999</v>
       </c>
       <c r="C89">
+        <v>16.815899999999999</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="2"/>
         <v>-0.59702216000000163</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>17.23105516</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>17.231953000000001</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <f t="shared" si="3"/>
         <v>8.9784000000037167E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>17.386193120000001</v>
       </c>
@@ -2347,21 +2616,24 @@
         <v>16.815901</v>
       </c>
       <c r="C90">
+        <v>17.048746999999999</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="2"/>
         <v>-0.57029212000000129</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>17.386193120000001</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>17.387098999999999</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <f t="shared" si="3"/>
         <v>9.0587999999769409E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>17.536982160000001</v>
       </c>
@@ -2369,21 +2641,24 @@
         <v>17.048748</v>
       </c>
       <c r="C91">
+        <v>17.050747000000001</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="2"/>
         <v>-0.48823416000000108</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>17.536982160000001</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>17.537896</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <f t="shared" si="3"/>
         <v>9.1383999999905541E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>17.736880920000001</v>
       </c>
@@ -2391,21 +2666,24 @@
         <v>17.231953000000001</v>
       </c>
       <c r="C92">
+        <v>17.231952</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="2"/>
         <v>-0.50492792000000009</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>17.736880920000001</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>17.737805000000002</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <f t="shared" si="3"/>
         <v>9.2408000000077095E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>17.895804640000001</v>
       </c>
@@ -2413,21 +2691,24 @@
         <v>17.387098999999999</v>
       </c>
       <c r="C93">
+        <v>17.387097000000001</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="2"/>
         <v>-0.50870564000000229</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>17.895804640000001</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>17.896737000000002</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <f t="shared" si="3"/>
         <v>9.3236000000018748E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>18.101551600000001</v>
       </c>
@@ -2435,21 +2716,24 @@
         <v>17.537896</v>
       </c>
       <c r="C94">
+        <v>17.537894999999999</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="2"/>
         <v>-0.56365560000000059</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>18.101551600000001</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>18.102494</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <f t="shared" si="3"/>
         <v>9.4239999999956581E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>18.343155719999999</v>
       </c>
@@ -2457,21 +2741,24 @@
         <v>17.737805000000002</v>
       </c>
       <c r="C95">
+        <v>17.737803</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="2"/>
         <v>-0.60535071999999701</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>18.343155719999999</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>18.344111000000002</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <f t="shared" si="3"/>
         <v>9.552800000030004E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>18.556793840000001</v>
       </c>
@@ -2479,21 +2766,24 @@
         <v>17.896737000000002</v>
       </c>
       <c r="C96">
+        <v>17.896736000000001</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="2"/>
         <v>-0.66005683999999931</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>18.556793840000001</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>18.557759999999998</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <f t="shared" si="3"/>
         <v>9.6615999999727364E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>18.786355520000001</v>
       </c>
@@ -2501,21 +2791,24 @@
         <v>18.102494</v>
       </c>
       <c r="C97">
+        <v>18.102492999999999</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="2"/>
         <v>-0.68386152000000067</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>18.786355520000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>18.787334000000001</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <f t="shared" si="3"/>
         <v>9.784800000005589E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>18.944497200000001</v>
       </c>
@@ -2523,21 +2816,24 @@
         <v>18.344111000000002</v>
       </c>
       <c r="C98">
+        <v>18.344110000000001</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="2"/>
         <v>-0.60038619999999909</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>18.944497200000001</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>18.945484</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <f t="shared" si="3"/>
         <v>9.8679999999973234E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>19.181414400000001</v>
       </c>
@@ -2545,21 +2841,24 @@
         <v>18.557759999999998</v>
       </c>
       <c r="C99">
+        <v>18.557759000000001</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="2"/>
         <v>-0.62365440000000305</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>19.181414400000001</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>19.182414000000001</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <f t="shared" si="3"/>
         <v>9.9960000000010041E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>19.4086696</v>
       </c>
@@ -2567,21 +2866,24 @@
         <v>18.787334000000001</v>
       </c>
       <c r="C100">
+        <v>18.787333</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="2"/>
         <v>-0.62133559999999832</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>19.4086696</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>19.409680999999999</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <f t="shared" si="3"/>
         <v>1.0113999999994405E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>19.617583880000002</v>
       </c>
@@ -2589,43 +2891,55 @@
         <v>18.945484</v>
       </c>
       <c r="C101">
+        <v>18.945482999999999</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="2"/>
         <v>-0.67209988000000109</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>19.617583880000002</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>19.618606</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <f t="shared" si="3"/>
         <v>1.0221199999982389E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>19.182414000000001</v>
       </c>
       <c r="C102">
+        <v>19.182411999999999</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="2"/>
         <v>19.182414000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>19.409680999999999</v>
       </c>
       <c r="C103">
+        <v>19.409679000000001</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="2"/>
         <v>19.409680999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>19.618606</v>
       </c>
       <c r="C104">
+        <v>19.618604999999999</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="2"/>
         <v>19.618606</v>
       </c>
@@ -2635,4 +2949,927 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.166260508</v>
+      </c>
+      <c r="B3">
+        <f>A3-A2</f>
+        <v>0.166260508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.36401175200000002</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">A4-A3</f>
+        <v>0.19775124400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.54144261800000004</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.17743086600000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.67465562499999998</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.13321300699999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.84440836799999996</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.16975274299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.0250329659999999</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.18062459799999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.1897864849999999</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.16475351900000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3446435839999999</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.154857099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.4775121600000001</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.13286857600000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.6583837939999999</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.18087163399999984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.7942733319999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.13588953800000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.999220942</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.20494761000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2.146774856</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.14755391399999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.2600772340000002</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.1133023780000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2.4546043580000001</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.19452712399999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2.6619532819999998</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.20734892399999971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2.85927591</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.19732262800000022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3.066327421</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.20705151099999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3.2260830629999999</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.15975564199999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3.406387649</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.1803045860000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3.551180488</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.14479283899999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3.6891312360000001</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.13795074800000018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3.8648865159999999</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.17575527999999974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4.0185346319999997</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.15364811599999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4.2091215919999998</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.19058696000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4.3816849759999998</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.17256338400000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4.5465008100000004</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.16481583400000055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4.6987478410000003</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.15224703099999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4.8817805920000001</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.18303275099999983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5.0635120279999999</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.18173143599999975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5.1951648830000003</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.13165285500000046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5.3808968320000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.18573194900000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5.5675392979999998</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.18664246599999945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5.6873487190000001</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.11980942100000025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5.8271910499999997</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.13984233099999965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5.9961110680000003</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.16892001800000056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6.1406157319999997</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.14450466399999939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6.3132777740000003</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.17266204200000068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6.458364853</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.14508707899999962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6.6592182150000001</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.20085336200000015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6.8541896319999998</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.19497141699999965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7.0230289609999996</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.16883932899999987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7.2211298160000004</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.19810085500000074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7.3478114899999998</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.12668167399999941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7.5131742819999996</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.16536279199999981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7.6676284399999997</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.15445415800000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7.8521884130000004</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.18455997300000071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8.0481194479999996</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.1959310349999992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8.1735755549999993</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.12545610699999976</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8.3327235250000005</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.15914797000000114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8.4841340790000004</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.15141055399999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8.6064227100000004</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.12228863099999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8.8136569100000006</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.20723420000000026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8.9614955260000002</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.14783861599999959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9.1014950970000008</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.1399995710000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9.2417390889999993</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.14024399199999849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9.3665548810000008</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.12481579200000148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9.4934332549999993</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.12687837399999857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9.6482619249999999</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.15482867000000056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9.8429614240000003</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.19469949900000039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9.9906517790000002</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.14769035499999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10.142392442</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.151740663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10.316896161000001</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.1745037190000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10.462589544</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.14569338299999934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10.617472421</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>0.15488287700000036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10.743563178</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B101" si="1">A68-A67</f>
+        <v>0.12609075700000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10.947275806</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.2037126279999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>11.103402322000001</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.15612651600000049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>11.266704884999999</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.16330256299999846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11.447711131</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.18100624600000081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>11.653795605999999</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.20608447499999905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>11.806678397000001</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.15288279100000146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>11.934087641</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.12740924399999898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>12.088107846</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0.15402020500000013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>12.216447314</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.12833946800000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>12.421522993</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.20507567900000012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12.578516763</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0.1569937699999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12.777452421</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0.1989356579999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12.982080290000001</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.20462786900000118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>13.120824016</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0.13874372599999951</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13.293746875</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.17292285899999982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>13.407630707999999</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.11388383299999916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>13.553303926</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0.14567321800000066</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>13.728184129000001</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.17488020300000073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>13.931261355</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.20307722599999956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>14.082795985000001</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0.15153463000000045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>14.245706367</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0.16291038199999974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>14.441652133</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.19594576599999947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>14.61506623</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0.17341409700000021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>14.765160700999999</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.15009447099999917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>14.913135843999999</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.14797514300000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>15.098463899</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.18532805500000116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>15.264786418</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.1663225189999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>15.393579672</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.12879325399999964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>15.507933788000001</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.11435411600000123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>15.655669003</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.14773521499999909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>15.815235158</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.15956615500000026</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>15.943591527000001</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.12835636900000047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>16.096244436999999</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.1526529099999987</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>MIN(B3:B101)</f>
+        <v>0.1133023780000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>